--- a/documentation/gezamelijke_planning.xlsx
+++ b/documentation/gezamelijke_planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_AD4D7A0C205A6BEAC67AC48EFE1E57725ADEDD9C" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CEB6C4A2-E1C1-4F58-9F4D-FAFC9C8C3DC3}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_AD4D7A0C205A6BEAC67AC48EFE1E57725ADEDD9C" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EAD7440B-298F-4866-8849-5A53772B7DAA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Voorbeeld eenvoudige projectplanning per dag</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Einde responsive en Finale opmaak</t>
   </si>
   <si>
-    <t>Brand van Haren</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -140,6 +137,24 @@
   </si>
   <si>
     <t>Brand</t>
+  </si>
+  <si>
+    <t>Burak</t>
+  </si>
+  <si>
+    <t>Gareth</t>
+  </si>
+  <si>
+    <t>eind oplevering website</t>
+  </si>
+  <si>
+    <t>Allemaal</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>Brand van Harn</t>
   </si>
 </sst>
 </file>
@@ -221,7 +236,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +321,18 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -695,14 +722,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -742,231 +764,281 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1294,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13:V13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.8" customHeight="1"/>
@@ -1310,1037 +1382,1059 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
     </row>
     <row r="3" spans="1:35" ht="31.8" customHeight="1" thickBot="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
     </row>
     <row r="4" spans="1:35" ht="31.8" customHeight="1" thickBot="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11">
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8">
         <v>1</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="12">
+      <c r="L4" s="7"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="9">
         <v>2</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="11">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="8">
         <v>3</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="52"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="82"/>
     </row>
     <row r="5" spans="1:35" ht="31.8" customHeight="1" thickBot="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="15">
+      <c r="J5" s="93"/>
+      <c r="K5" s="12">
         <v>1</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="15">
         <v>2</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="13">
         <v>3</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="13">
         <v>4</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="16">
         <v>5</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="15">
         <v>1</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="15">
         <v>2</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="13">
         <v>3</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="13">
         <v>4</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="14">
         <v>5</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="12">
         <v>1</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="15">
         <v>2</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="13">
         <v>3</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="13">
         <v>4</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="Y5" s="16">
         <v>5</v>
       </c>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="55"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="85"/>
     </row>
     <row r="6" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="22">
+      <c r="A6" s="1"/>
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="D6" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="19">
         <v>43502</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="20">
         <v>1</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="55"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="85"/>
     </row>
     <row r="7" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="24">
+      <c r="D7" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="19">
         <v>43503</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="20">
         <v>1</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="55"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
+      <c r="AG7" s="84"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="85"/>
     </row>
     <row r="8" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35">
+      <c r="D8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="26">
         <v>43504</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="55"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="84"/>
+      <c r="AH8" s="84"/>
+      <c r="AI8" s="85"/>
     </row>
     <row r="9" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="35">
+      <c r="D9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="26">
         <v>43505</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="27">
         <v>1</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="55"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="84"/>
+      <c r="AI9" s="85"/>
     </row>
     <row r="10" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35" t="s">
+      <c r="D10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="27">
         <v>1</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="55"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="84"/>
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="85"/>
     </row>
-    <row r="11" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="29">
+    <row r="11" spans="1:35" s="110" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A11" s="96"/>
+      <c r="B11" s="97">
         <v>2</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35" t="s">
+      <c r="D11" s="99"/>
+      <c r="E11" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="55"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="84"/>
+      <c r="AI11" s="85"/>
     </row>
     <row r="12" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="35" t="s">
+      <c r="D12" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="27">
         <v>1</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="55"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="84"/>
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="85"/>
     </row>
     <row r="13" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35" t="s">
+      <c r="D13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="27">
         <v>1</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="55"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="84"/>
+      <c r="AI13" s="85"/>
     </row>
     <row r="14" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="35" t="s">
+      <c r="D14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="27">
         <v>2</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="54"/>
-      <c r="AI14" s="55"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="85"/>
     </row>
-    <row r="15" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="55"/>
+    <row r="15" spans="1:35" s="110" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A15" s="96"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="106"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="85"/>
     </row>
     <row r="16" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="35" t="s">
+      <c r="D16" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="27">
         <v>2</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="55"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="84"/>
+      <c r="AI16" s="85"/>
     </row>
     <row r="17" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="55"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="85"/>
     </row>
     <row r="18" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="55"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="22">
+        <v>4</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="84"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="85"/>
     </row>
     <row r="19" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="58"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="88"/>
     </row>
     <row r="20" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
     </row>
     <row r="21" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
     </row>
     <row r="22" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="47" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
     </row>
     <row r="23" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
     </row>
     <row r="24" spans="1:35" ht="31.8" customHeight="1">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61" t="s">
-        <v>37</v>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="31.8" customHeight="1">
-      <c r="B25" s="62"/>
-      <c r="C25" s="61" t="s">
-        <v>38</v>
+      <c r="B25" s="44"/>
+      <c r="C25" s="43" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:S3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="Z4:AI19"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A1:S3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="K6">

--- a/documentation/gezamelijke_planning.xlsx
+++ b/documentation/gezamelijke_planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_AD4D7A0C205A6BEAC67AC48EFE1E57725ADEDD9C" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EAD7440B-298F-4866-8849-5A53772B7DAA}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_AD4D7A0C205A6BEAC67AC48EFE1E57725ADEDD9C" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{08A78F07-2444-4F37-813C-7135536E4F5C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="45">
   <si>
     <t>Voorbeeld eenvoudige projectplanning per dag</t>
   </si>
@@ -236,7 +236,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,19 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -333,6 +321,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -722,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -770,21 +764,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,61 +856,71 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,45 +929,18 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -989,56 +951,88 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1366,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B7:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.8" customHeight="1"/>
@@ -1382,27 +1376,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -1421,25 +1415,25 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="90"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="80"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="3"/>
@@ -1458,25 +1452,25 @@
       <c r="AI2" s="3"/>
     </row>
     <row r="3" spans="1:35" ht="31.8" customHeight="1" thickBot="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="3"/>
@@ -1528,16 +1522,16 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="82"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="90"/>
     </row>
     <row r="5" spans="1:35" ht="31.8" customHeight="1" thickBot="1">
       <c r="A5" s="11"/>
@@ -1562,10 +1556,10 @@
       <c r="H5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="92" t="s">
+      <c r="I5" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="12">
         <v>1</v>
       </c>
@@ -1611,824 +1605,769 @@
       <c r="Y5" s="16">
         <v>5</v>
       </c>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="85"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="93"/>
     </row>
-    <row r="6" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="19">
-        <v>43502</v>
-      </c>
-      <c r="F6" s="20">
-        <v>1</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="85"/>
+    <row r="6" spans="1:35" s="106" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="93"/>
     </row>
-    <row r="7" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="19">
-        <v>43503</v>
-      </c>
-      <c r="F7" s="20">
-        <v>1</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="85"/>
+    <row r="7" spans="1:35" s="106" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A7" s="97"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="93"/>
     </row>
-    <row r="8" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="26">
-        <v>43504</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="84"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="85"/>
+    <row r="8" spans="1:35" s="106" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A8" s="97"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="93"/>
     </row>
-    <row r="9" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="26">
-        <v>43505</v>
-      </c>
-      <c r="F9" s="27">
-        <v>1</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="85"/>
+    <row r="9" spans="1:35" s="106" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A9" s="97"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="93"/>
     </row>
-    <row r="10" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="26" t="s">
+    <row r="10" spans="1:35" s="106" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A10" s="97"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="93"/>
+    </row>
+    <row r="11" spans="1:35" s="75" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64">
+        <v>2</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="27">
-        <v>1</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="85"/>
-    </row>
-    <row r="11" spans="1:35" s="110" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="97">
-        <v>2</v>
-      </c>
-      <c r="C11" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="85"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="93"/>
     </row>
     <row r="12" spans="1:35" ht="31.8" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="22">
         <v>1</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="85"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="93"/>
     </row>
     <row r="13" spans="1:35" ht="31.8" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="22">
         <v>1</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="85"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="93"/>
     </row>
     <row r="14" spans="1:35" ht="31.8" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="22">
         <v>2</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="85"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="93"/>
     </row>
-    <row r="15" spans="1:35" s="110" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="85"/>
+    <row r="15" spans="1:35" s="75" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="93"/>
     </row>
     <row r="16" spans="1:35" ht="31.8" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="22">
         <v>2</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="85"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="93"/>
     </row>
     <row r="17" spans="1:35" ht="31.8" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="85"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="92"/>
+      <c r="AE17" s="92"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="93"/>
     </row>
     <row r="18" spans="1:35" ht="31.8" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="22">
+      <c r="B18" s="17">
         <v>4</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="85"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="93"/>
     </row>
     <row r="19" spans="1:35" ht="31.8" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="87"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="88"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
     </row>
     <row r="20" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
     </row>
     <row r="21" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
     </row>
     <row r="22" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="38" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
     </row>
     <row r="23" spans="1:35" ht="31.8" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
     </row>
     <row r="24" spans="1:35" ht="31.8" customHeight="1">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="31.8" customHeight="1">
-      <c r="B25" s="44"/>
-      <c r="C25" s="43" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="38" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:S3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H18:J18"/>
@@ -2436,6 +2375,11 @@
     <mergeCell ref="Z4:AI19"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:S3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="K6">
     <cfRule type="colorScale" priority="1">
